--- a/mock_isp_data.xlsx
+++ b/mock_isp_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -74,7 +74,7 @@
     <t>JukThong Tech</t>
   </si>
   <si>
-    <t>Sample ISP Client</t>
+    <t>Sample Client</t>
   </si>
   <si>
     <t>FTTH</t>
@@ -119,13 +119,13 @@
     <t>Update_Date</t>
   </si>
   <si>
-    <t>User</t>
+    <t>Admin</t>
   </si>
   <si>
     <t>2024-05-20</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Pah</t>
   </si>
 </sst>
 </file>

--- a/mock_isp_data.xlsx
+++ b/mock_isp_data.xlsx
@@ -1,163 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Main_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
-  <si>
-    <t>MSISDN</t>
-  </si>
-  <si>
-    <t>RC_RATE</t>
-  </si>
-  <si>
-    <t>SUBS_STATUS</t>
-  </si>
-  <si>
-    <t>CUST_FULL_NAME</t>
-  </si>
-  <si>
-    <t>PRODUCT_TYPE</t>
-  </si>
-  <si>
-    <t>CONTRACT_START_DT</t>
-  </si>
-  <si>
-    <t>CONTRACT_END_DT</t>
-  </si>
-  <si>
-    <t>0960673105</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>0812345678</t>
-  </si>
-  <si>
-    <t>0612345678</t>
-  </si>
-  <si>
-    <t>0998887776</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Suspended</t>
-  </si>
-  <si>
-    <t>Terminated</t>
-  </si>
-  <si>
-    <t>ABC Corp</t>
-  </si>
-  <si>
-    <t>XYZ Co.,Ltd</t>
-  </si>
-  <si>
-    <t>Pah Nattapong Service</t>
-  </si>
-  <si>
-    <t>JukThong Tech</t>
-  </si>
-  <si>
-    <t>Sample Client</t>
-  </si>
-  <si>
-    <t>FTTH</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>DATA SERVICE</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-05-15</t>
-  </si>
-  <si>
-    <t>2022-10-20</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
-    <t>Update_Date</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>Pah</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -165,36 +43,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -482,181 +409,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MSISDN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>RC_RATE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SUBS_STATUS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CUST_FULL_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PRODUCT_TYPE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CONTRACT_START_DT</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CONTRACT_END_DT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0960673105</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>599</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ABC Corp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FTTH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>899</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>XYZ Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0812345678</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1200</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pah Nattapong Service</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0612345678</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>449</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JukThong Tech</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DATA SERVICE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0998887776</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>299</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sample Client</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FTTH</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Update_Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pah</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/mock_isp_data.xlsx
+++ b/mock_isp_data.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2026-03-01</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2026-05-15</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2025-10-20</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>

--- a/mock_isp_data.xlsx
+++ b/mock_isp_data.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Main_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,30 +429,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>CUST_FULL_NAME</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>RC_RATE</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>SUBS_STATUS</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CUST_FULL_NAME</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>PRODUCT_TYPE</t>
+          <t>CONTRACT_START_DT</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>CONTRACT_START_DT</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>CONTRACT_END_DT</t>
         </is>
@@ -462,218 +456,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0960673105</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>0960000001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>นายหมดอายุ แล้วครับ</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>599</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ABC Corp</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FTTH</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
+          <t>2025-12-31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>0960000002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>บริษัท กำลังจะหมด (15วัน)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>899</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>XYZ Co.,Ltd</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2026-05-15</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0812345678</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>0960000003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ร้านค้า ยังเหลือเยอะ</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1200</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pah Nattapong Service</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
+          <t>2026-12-31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0612345678</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>0960000004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>นายพอดีเป๊ะ (วันนี้หมด)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>449</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JukThong Tech</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DATA SERVICE</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
+          <t>2026-02-12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0998887776</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+          <t>0960000005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>บจก. เพิ่งเริ่มสัญญา</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>299</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Terminated</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sample Client</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FTTH</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Update_Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-05-20</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pah</t>
+          <t>2027-12-31</t>
         </is>
       </c>
     </row>
